--- a/data/TC001.xlsx
+++ b/data/TC001.xlsx
@@ -21,13 +21,13 @@
     <t>BrandName</t>
   </si>
   <si>
-    <t>ASICS</t>
-  </si>
-  <si>
     <t>xpath</t>
   </si>
   <si>
     <t>//*[contains(@class,'search2 ui-autocomplete-input')]</t>
+  </si>
+  <si>
+    <t>MEN'S ASICS GEL-KAYANO 25</t>
   </si>
 </sst>
 </file>
@@ -385,14 +385,14 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -400,10 +400,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
